--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.33393535474756</v>
+        <v>9.424968666666667</v>
       </c>
       <c r="H2">
-        <v>9.33393535474756</v>
+        <v>28.274906</v>
       </c>
       <c r="I2">
-        <v>0.326831424936562</v>
+        <v>0.2978541337039891</v>
       </c>
       <c r="J2">
-        <v>0.326831424936562</v>
+        <v>0.3221356850041872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.8263537765902</v>
+        <v>2.416098</v>
       </c>
       <c r="N2">
-        <v>1.8263537765902</v>
+        <v>7.248294</v>
       </c>
       <c r="O2">
-        <v>0.1091383993435501</v>
+        <v>0.129555482123503</v>
       </c>
       <c r="P2">
-        <v>0.1091383993435501</v>
+        <v>0.1362159554733215</v>
       </c>
       <c r="Q2">
-        <v>17.047068085592</v>
+        <v>22.771647945596</v>
       </c>
       <c r="R2">
-        <v>17.047068085592</v>
+        <v>204.944831510364</v>
       </c>
       <c r="S2">
-        <v>0.03566985857274801</v>
+        <v>0.03858863589449863</v>
       </c>
       <c r="T2">
-        <v>0.03566985857274801</v>
+        <v>0.04388002012489826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.33393535474756</v>
+        <v>9.424968666666667</v>
       </c>
       <c r="H3">
-        <v>9.33393535474756</v>
+        <v>28.274906</v>
       </c>
       <c r="I3">
-        <v>0.326831424936562</v>
+        <v>0.2978541337039891</v>
       </c>
       <c r="J3">
-        <v>0.326831424936562</v>
+        <v>0.3221356850041872</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.03958220888218</v>
+        <v>5.346630666666667</v>
       </c>
       <c r="N3">
-        <v>5.03958220888218</v>
+        <v>16.039892</v>
       </c>
       <c r="O3">
-        <v>0.3011530091746546</v>
+        <v>0.2866958681958705</v>
       </c>
       <c r="P3">
-        <v>0.3011530091746546</v>
+        <v>0.3014349603463775</v>
       </c>
       <c r="Q3">
-        <v>47.03913455264218</v>
+        <v>50.39182650557245</v>
       </c>
       <c r="R3">
-        <v>47.03913455264218</v>
+        <v>453.526438550152</v>
       </c>
       <c r="S3">
-        <v>0.09842626711248589</v>
+        <v>0.08539354945799403</v>
       </c>
       <c r="T3">
-        <v>0.09842626711248589</v>
+        <v>0.0971029574353903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.33393535474756</v>
+        <v>9.424968666666667</v>
       </c>
       <c r="H4">
-        <v>9.33393535474756</v>
+        <v>28.274906</v>
       </c>
       <c r="I4">
-        <v>0.326831424936562</v>
+        <v>0.2978541337039891</v>
       </c>
       <c r="J4">
-        <v>0.326831424936562</v>
+        <v>0.3221356850041872</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.45300805719319</v>
+        <v>2.517315</v>
       </c>
       <c r="N4">
-        <v>2.45300805719319</v>
+        <v>7.551945</v>
       </c>
       <c r="O4">
-        <v>0.1465857143180245</v>
+        <v>0.1349829181108241</v>
       </c>
       <c r="P4">
-        <v>0.1465857143180245</v>
+        <v>0.1419224170345426</v>
       </c>
       <c r="Q4">
-        <v>22.89621863051614</v>
+        <v>23.72561499913</v>
       </c>
       <c r="R4">
-        <v>22.89621863051614</v>
+        <v>213.53053499217</v>
       </c>
       <c r="S4">
-        <v>0.04790881788590376</v>
+        <v>0.04020522013873602</v>
       </c>
       <c r="T4">
-        <v>0.04790881788590376</v>
+        <v>0.04571827502887229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.33393535474756</v>
+        <v>9.424968666666667</v>
       </c>
       <c r="H5">
-        <v>9.33393535474756</v>
+        <v>28.274906</v>
       </c>
       <c r="I5">
-        <v>0.326831424936562</v>
+        <v>0.2978541337039891</v>
       </c>
       <c r="J5">
-        <v>0.326831424936562</v>
+        <v>0.3221356850041872</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.95598456933087</v>
+        <v>5.633465333333334</v>
       </c>
       <c r="N5">
-        <v>4.95598456933087</v>
+        <v>16.900396</v>
       </c>
       <c r="O5">
-        <v>0.2961574203208001</v>
+        <v>0.3020764543847314</v>
       </c>
       <c r="P5">
-        <v>0.2961574203208001</v>
+        <v>0.3176062655595234</v>
       </c>
       <c r="Q5">
-        <v>46.25883958926077</v>
+        <v>53.09523425141955</v>
       </c>
       <c r="R5">
-        <v>46.25883958926077</v>
+        <v>477.857108262776</v>
       </c>
       <c r="S5">
-        <v>0.09679355168898343</v>
+        <v>0.08997472063313672</v>
       </c>
       <c r="T5">
-        <v>0.09679355168898343</v>
+        <v>0.1023123119176389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.33393535474756</v>
+        <v>9.424968666666667</v>
       </c>
       <c r="H6">
-        <v>9.33393535474756</v>
+        <v>28.274906</v>
       </c>
       <c r="I6">
-        <v>0.326831424936562</v>
+        <v>0.2978541337039891</v>
       </c>
       <c r="J6">
-        <v>0.326831424936562</v>
+        <v>0.3221356850041872</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.45936277925929</v>
+        <v>2.7356285</v>
       </c>
       <c r="N6">
-        <v>2.45936277925929</v>
+        <v>5.471257</v>
       </c>
       <c r="O6">
-        <v>0.1469654568429707</v>
+        <v>0.1466892771850709</v>
       </c>
       <c r="P6">
-        <v>0.1469654568429707</v>
+        <v>0.1028204015862351</v>
       </c>
       <c r="Q6">
-        <v>22.95553319547851</v>
+        <v>25.78321289614033</v>
       </c>
       <c r="R6">
-        <v>22.95553319547851</v>
+        <v>154.699277376842</v>
       </c>
       <c r="S6">
-        <v>0.04803292967644092</v>
+        <v>0.0436920075796236</v>
       </c>
       <c r="T6">
-        <v>0.04803292967644092</v>
+        <v>0.03312212049738746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.97681183838965</v>
+        <v>3.182726</v>
       </c>
       <c r="H7">
-        <v>2.97681183838965</v>
+        <v>9.548178</v>
       </c>
       <c r="I7">
-        <v>0.1042342396783429</v>
+        <v>0.100582625690833</v>
       </c>
       <c r="J7">
-        <v>0.1042342396783429</v>
+        <v>0.1087822842124359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.8263537765902</v>
+        <v>2.416098</v>
       </c>
       <c r="N7">
-        <v>1.8263537765902</v>
+        <v>7.248294</v>
       </c>
       <c r="O7">
-        <v>0.1091383993435501</v>
+        <v>0.129555482123503</v>
       </c>
       <c r="P7">
-        <v>0.1091383993435501</v>
+        <v>0.1362159554733215</v>
       </c>
       <c r="Q7">
-        <v>5.436711543241353</v>
+        <v>7.689777923148</v>
       </c>
       <c r="R7">
-        <v>5.436711543241353</v>
+        <v>69.208001308332</v>
       </c>
       <c r="S7">
-        <v>0.0113759580752863</v>
+        <v>0.0130310305646237</v>
       </c>
       <c r="T7">
-        <v>0.0113759580752863</v>
+        <v>0.01481788278256737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.97681183838965</v>
+        <v>3.182726</v>
       </c>
       <c r="H8">
-        <v>2.97681183838965</v>
+        <v>9.548178</v>
       </c>
       <c r="I8">
-        <v>0.1042342396783429</v>
+        <v>0.100582625690833</v>
       </c>
       <c r="J8">
-        <v>0.1042342396783429</v>
+        <v>0.1087822842124359</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.03958220888218</v>
+        <v>5.346630666666667</v>
       </c>
       <c r="N8">
-        <v>5.03958220888218</v>
+        <v>16.039892</v>
       </c>
       <c r="O8">
-        <v>0.3011530091746546</v>
+        <v>0.2866958681958705</v>
       </c>
       <c r="P8">
-        <v>0.3011530091746546</v>
+        <v>0.3014349603463775</v>
       </c>
       <c r="Q8">
-        <v>15.00188797993833</v>
+        <v>17.01686043519733</v>
       </c>
       <c r="R8">
-        <v>15.00188797993833</v>
+        <v>153.151743916776</v>
       </c>
       <c r="S8">
-        <v>0.03139045493816515</v>
+        <v>0.02883662319785362</v>
       </c>
       <c r="T8">
-        <v>0.03139045493816515</v>
+        <v>0.03279078352796398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.97681183838965</v>
+        <v>3.182726</v>
       </c>
       <c r="H9">
-        <v>2.97681183838965</v>
+        <v>9.548178</v>
       </c>
       <c r="I9">
-        <v>0.1042342396783429</v>
+        <v>0.100582625690833</v>
       </c>
       <c r="J9">
-        <v>0.1042342396783429</v>
+        <v>0.1087822842124359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.45300805719319</v>
+        <v>2.517315</v>
       </c>
       <c r="N9">
-        <v>2.45300805719319</v>
+        <v>7.551945</v>
       </c>
       <c r="O9">
-        <v>0.1465857143180245</v>
+        <v>0.1349829181108241</v>
       </c>
       <c r="P9">
-        <v>0.1465857143180245</v>
+        <v>0.1419224170345426</v>
       </c>
       <c r="Q9">
-        <v>7.302143424317882</v>
+        <v>8.01192390069</v>
       </c>
       <c r="R9">
-        <v>7.302143424317882</v>
+        <v>72.10731510621</v>
       </c>
       <c r="S9">
-        <v>0.01527925047964607</v>
+        <v>0.01357693632699738</v>
       </c>
       <c r="T9">
-        <v>0.01527925047964607</v>
+        <v>0.01543864470596747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.97681183838965</v>
+        <v>3.182726</v>
       </c>
       <c r="H10">
-        <v>2.97681183838965</v>
+        <v>9.548178</v>
       </c>
       <c r="I10">
-        <v>0.1042342396783429</v>
+        <v>0.100582625690833</v>
       </c>
       <c r="J10">
-        <v>0.1042342396783429</v>
+        <v>0.1087822842124359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.95598456933087</v>
+        <v>5.633465333333334</v>
       </c>
       <c r="N10">
-        <v>4.95598456933087</v>
+        <v>16.900396</v>
       </c>
       <c r="O10">
-        <v>0.2961574203208001</v>
+        <v>0.3020764543847314</v>
       </c>
       <c r="P10">
-        <v>0.2961574203208001</v>
+        <v>0.3176062655595234</v>
       </c>
       <c r="Q10">
-        <v>14.75303353686057</v>
+        <v>17.92977658649867</v>
       </c>
       <c r="R10">
-        <v>14.75303353686057</v>
+        <v>161.367989278488</v>
       </c>
       <c r="S10">
-        <v>0.03086974353223803</v>
+        <v>0.03038364294139341</v>
       </c>
       <c r="T10">
-        <v>0.03086974353223803</v>
+        <v>0.03454993504774648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.97681183838965</v>
+        <v>3.182726</v>
       </c>
       <c r="H11">
-        <v>2.97681183838965</v>
+        <v>9.548178</v>
       </c>
       <c r="I11">
-        <v>0.1042342396783429</v>
+        <v>0.100582625690833</v>
       </c>
       <c r="J11">
-        <v>0.1042342396783429</v>
+        <v>0.1087822842124359</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.45936277925929</v>
+        <v>2.7356285</v>
       </c>
       <c r="N11">
-        <v>2.45936277925929</v>
+        <v>5.471257</v>
       </c>
       <c r="O11">
-        <v>0.1469654568429707</v>
+        <v>0.1466892771850709</v>
       </c>
       <c r="P11">
-        <v>0.1469654568429707</v>
+        <v>0.1028204015862351</v>
       </c>
       <c r="Q11">
-        <v>7.321060236193926</v>
+        <v>8.706755953290999</v>
       </c>
       <c r="R11">
-        <v>7.321060236193926</v>
+        <v>52.240535719746</v>
       </c>
       <c r="S11">
-        <v>0.01531883265300737</v>
+        <v>0.01475439265996482</v>
       </c>
       <c r="T11">
-        <v>0.01531883265300737</v>
+        <v>0.01118503814819062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.42655962831069</v>
+        <v>5.748145</v>
       </c>
       <c r="H12">
-        <v>3.42655962831069</v>
+        <v>17.244435</v>
       </c>
       <c r="I12">
-        <v>0.1199823357873649</v>
+        <v>0.1816567046461533</v>
       </c>
       <c r="J12">
-        <v>0.1199823357873649</v>
+        <v>0.1964656533689336</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.8263537765902</v>
+        <v>2.416098</v>
       </c>
       <c r="N12">
-        <v>1.8263537765902</v>
+        <v>7.248294</v>
       </c>
       <c r="O12">
-        <v>0.1091383993435501</v>
+        <v>0.129555482123503</v>
       </c>
       <c r="P12">
-        <v>0.1091383993435501</v>
+        <v>0.1362159554733215</v>
       </c>
       <c r="Q12">
-        <v>6.258110117876741</v>
+        <v>13.88808163821</v>
       </c>
       <c r="R12">
-        <v>6.258110117876741</v>
+        <v>124.99273474389</v>
       </c>
       <c r="S12">
-        <v>0.01309468007733336</v>
+        <v>0.02353462195139918</v>
       </c>
       <c r="T12">
-        <v>0.01309468007733336</v>
+        <v>0.02676175669133966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.42655962831069</v>
+        <v>5.748145</v>
       </c>
       <c r="H13">
-        <v>3.42655962831069</v>
+        <v>17.244435</v>
       </c>
       <c r="I13">
-        <v>0.1199823357873649</v>
+        <v>0.1816567046461533</v>
       </c>
       <c r="J13">
-        <v>0.1199823357873649</v>
+        <v>0.1964656533689336</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.03958220888218</v>
+        <v>5.346630666666667</v>
       </c>
       <c r="N13">
-        <v>5.03958220888218</v>
+        <v>16.039892</v>
       </c>
       <c r="O13">
-        <v>0.3011530091746546</v>
+        <v>0.2866958681958705</v>
       </c>
       <c r="P13">
-        <v>0.3011530091746546</v>
+        <v>0.3014349603463775</v>
       </c>
       <c r="Q13">
-        <v>17.26842894050849</v>
+        <v>30.73320833344667</v>
       </c>
       <c r="R13">
-        <v>17.26842894050849</v>
+        <v>276.59887500102</v>
       </c>
       <c r="S13">
-        <v>0.0361330414701688</v>
+        <v>0.05208022665212975</v>
       </c>
       <c r="T13">
-        <v>0.0361330414701688</v>
+        <v>0.05922161643268963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.42655962831069</v>
+        <v>5.748145</v>
       </c>
       <c r="H14">
-        <v>3.42655962831069</v>
+        <v>17.244435</v>
       </c>
       <c r="I14">
-        <v>0.1199823357873649</v>
+        <v>0.1816567046461533</v>
       </c>
       <c r="J14">
-        <v>0.1199823357873649</v>
+        <v>0.1964656533689336</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.45300805719319</v>
+        <v>2.517315</v>
       </c>
       <c r="N14">
-        <v>2.45300805719319</v>
+        <v>7.551945</v>
       </c>
       <c r="O14">
-        <v>0.1465857143180245</v>
+        <v>0.1349829181108241</v>
       </c>
       <c r="P14">
-        <v>0.1465857143180245</v>
+        <v>0.1419224170345426</v>
       </c>
       <c r="Q14">
-        <v>8.405378376699025</v>
+        <v>14.469891630675</v>
       </c>
       <c r="R14">
-        <v>8.405378376699025</v>
+        <v>130.229024676075</v>
       </c>
       <c r="S14">
-        <v>0.01758769639693597</v>
+        <v>0.02452055208753388</v>
       </c>
       <c r="T14">
-        <v>0.01758769639693597</v>
+        <v>0.02788288039038967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.42655962831069</v>
+        <v>5.748145</v>
       </c>
       <c r="H15">
-        <v>3.42655962831069</v>
+        <v>17.244435</v>
       </c>
       <c r="I15">
-        <v>0.1199823357873649</v>
+        <v>0.1816567046461533</v>
       </c>
       <c r="J15">
-        <v>0.1199823357873649</v>
+        <v>0.1964656533689336</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.95598456933087</v>
+        <v>5.633465333333334</v>
       </c>
       <c r="N15">
-        <v>4.95598456933087</v>
+        <v>16.900396</v>
       </c>
       <c r="O15">
-        <v>0.2961574203208001</v>
+        <v>0.3020764543847314</v>
       </c>
       <c r="P15">
-        <v>0.2961574203208001</v>
+        <v>0.3176062655595234</v>
       </c>
       <c r="Q15">
-        <v>16.9819766437999</v>
+        <v>32.38197558847334</v>
       </c>
       <c r="R15">
-        <v>16.9819766437999</v>
+        <v>291.43778029626</v>
       </c>
       <c r="S15">
-        <v>0.03553365905085002</v>
+        <v>0.05487421325472435</v>
       </c>
       <c r="T15">
-        <v>0.03553365905085002</v>
+        <v>0.0623987224772188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.42655962831069</v>
+        <v>5.748145</v>
       </c>
       <c r="H16">
-        <v>3.42655962831069</v>
+        <v>17.244435</v>
       </c>
       <c r="I16">
-        <v>0.1199823357873649</v>
+        <v>0.1816567046461533</v>
       </c>
       <c r="J16">
-        <v>0.1199823357873649</v>
+        <v>0.1964656533689336</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.45936277925929</v>
+        <v>2.7356285</v>
       </c>
       <c r="N16">
-        <v>2.45936277925929</v>
+        <v>5.471257</v>
       </c>
       <c r="O16">
-        <v>0.1469654568429707</v>
+        <v>0.1466892771850709</v>
       </c>
       <c r="P16">
-        <v>0.1469654568429707</v>
+        <v>0.1028204015862351</v>
       </c>
       <c r="Q16">
-        <v>8.427153210779858</v>
+        <v>15.7247892841325</v>
       </c>
       <c r="R16">
-        <v>8.427153210779858</v>
+        <v>94.34873570479499</v>
       </c>
       <c r="S16">
-        <v>0.0176332587920768</v>
+        <v>0.02664709070036613</v>
       </c>
       <c r="T16">
-        <v>0.0176332587920768</v>
+        <v>0.02020067737729581</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.85923181164128</v>
+        <v>6.131640666666667</v>
       </c>
       <c r="H17">
-        <v>5.85923181164128</v>
+        <v>18.394922</v>
       </c>
       <c r="I17">
-        <v>0.2051633109991841</v>
+        <v>0.1937761899849446</v>
       </c>
       <c r="J17">
-        <v>0.2051633109991841</v>
+        <v>0.2095731387778475</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.8263537765902</v>
+        <v>2.416098</v>
       </c>
       <c r="N17">
-        <v>1.8263537765902</v>
+        <v>7.248294</v>
       </c>
       <c r="O17">
-        <v>0.1091383993435501</v>
+        <v>0.129555482123503</v>
       </c>
       <c r="P17">
-        <v>0.1091383993435501</v>
+        <v>0.1362159554733215</v>
       </c>
       <c r="Q17">
-        <v>10.70103014710849</v>
+        <v>14.814644751452</v>
       </c>
       <c r="R17">
-        <v>10.70103014710849</v>
+        <v>133.331802763068</v>
       </c>
       <c r="S17">
-        <v>0.02239119536647391</v>
+        <v>0.02510476771755501</v>
       </c>
       <c r="T17">
-        <v>0.02239119536647391</v>
+        <v>0.02854720534016749</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.85923181164128</v>
+        <v>6.131640666666667</v>
       </c>
       <c r="H18">
-        <v>5.85923181164128</v>
+        <v>18.394922</v>
       </c>
       <c r="I18">
-        <v>0.2051633109991841</v>
+        <v>0.1937761899849446</v>
       </c>
       <c r="J18">
-        <v>0.2051633109991841</v>
+        <v>0.2095731387778475</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.03958220888218</v>
+        <v>5.346630666666667</v>
       </c>
       <c r="N18">
-        <v>5.03958220888218</v>
+        <v>16.039892</v>
       </c>
       <c r="O18">
-        <v>0.3011530091746546</v>
+        <v>0.2866958681958705</v>
       </c>
       <c r="P18">
-        <v>0.3011530091746546</v>
+        <v>0.3014349603463775</v>
       </c>
       <c r="Q18">
-        <v>29.5280803956639</v>
+        <v>32.78361802538045</v>
       </c>
       <c r="R18">
-        <v>29.5280803956639</v>
+        <v>295.0525622284241</v>
       </c>
       <c r="S18">
-        <v>0.0617855484796398</v>
+        <v>0.05555483302342164</v>
       </c>
       <c r="T18">
-        <v>0.0617855484796398</v>
+        <v>0.06317267077716632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.85923181164128</v>
+        <v>6.131640666666667</v>
       </c>
       <c r="H19">
-        <v>5.85923181164128</v>
+        <v>18.394922</v>
       </c>
       <c r="I19">
-        <v>0.2051633109991841</v>
+        <v>0.1937761899849446</v>
       </c>
       <c r="J19">
-        <v>0.2051633109991841</v>
+        <v>0.2095731387778475</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.45300805719319</v>
+        <v>2.517315</v>
       </c>
       <c r="N19">
-        <v>2.45300805719319</v>
+        <v>7.551945</v>
       </c>
       <c r="O19">
-        <v>0.1465857143180245</v>
+        <v>0.1349829181108241</v>
       </c>
       <c r="P19">
-        <v>0.1465857143180245</v>
+        <v>0.1419224170345426</v>
       </c>
       <c r="Q19">
-        <v>14.37274284291871</v>
+        <v>15.43527102481</v>
       </c>
       <c r="R19">
-        <v>14.37274284291871</v>
+        <v>138.91743922329</v>
       </c>
       <c r="S19">
-        <v>0.03007401049466642</v>
+        <v>0.02615647558456528</v>
       </c>
       <c r="T19">
-        <v>0.03007401049466642</v>
+        <v>0.02974312640086774</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.85923181164128</v>
+        <v>6.131640666666667</v>
       </c>
       <c r="H20">
-        <v>5.85923181164128</v>
+        <v>18.394922</v>
       </c>
       <c r="I20">
-        <v>0.2051633109991841</v>
+        <v>0.1937761899849446</v>
       </c>
       <c r="J20">
-        <v>0.2051633109991841</v>
+        <v>0.2095731387778475</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.95598456933087</v>
+        <v>5.633465333333334</v>
       </c>
       <c r="N20">
-        <v>4.95598456933087</v>
+        <v>16.900396</v>
       </c>
       <c r="O20">
-        <v>0.2961574203208001</v>
+        <v>0.3020764543847314</v>
       </c>
       <c r="P20">
-        <v>0.2961574203208001</v>
+        <v>0.3176062655595234</v>
       </c>
       <c r="Q20">
-        <v>29.03826244662674</v>
+        <v>34.54238513212356</v>
       </c>
       <c r="R20">
-        <v>29.03826244662674</v>
+        <v>310.881466189112</v>
       </c>
       <c r="S20">
-        <v>0.0607606369299924</v>
+        <v>0.05853522441483415</v>
       </c>
       <c r="T20">
-        <v>0.0607606369299924</v>
+        <v>0.06656174196881989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.85923181164128</v>
+        <v>6.131640666666667</v>
       </c>
       <c r="H21">
-        <v>5.85923181164128</v>
+        <v>18.394922</v>
       </c>
       <c r="I21">
-        <v>0.2051633109991841</v>
+        <v>0.1937761899849446</v>
       </c>
       <c r="J21">
-        <v>0.2051633109991841</v>
+        <v>0.2095731387778475</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.45936277925929</v>
+        <v>2.7356285</v>
       </c>
       <c r="N21">
-        <v>2.45936277925929</v>
+        <v>5.471257</v>
       </c>
       <c r="O21">
-        <v>0.1469654568429707</v>
+        <v>0.1466892771850709</v>
       </c>
       <c r="P21">
-        <v>0.1469654568429707</v>
+        <v>0.1028204015862351</v>
       </c>
       <c r="Q21">
-        <v>14.40997663260254</v>
+        <v>16.77389095949233</v>
       </c>
       <c r="R21">
-        <v>14.40997663260254</v>
+        <v>100.643345756954</v>
       </c>
       <c r="S21">
-        <v>0.03015191972841156</v>
+        <v>0.02842488924456849</v>
       </c>
       <c r="T21">
-        <v>0.03015191972841156</v>
+        <v>0.02154839429082606</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.96232885206552</v>
+        <v>7.155419999999999</v>
       </c>
       <c r="H22">
-        <v>6.96232885206552</v>
+        <v>14.31084</v>
       </c>
       <c r="I22">
-        <v>0.243788688598546</v>
+        <v>0.22613034597408</v>
       </c>
       <c r="J22">
-        <v>0.243788688598546</v>
+        <v>0.163043238636596</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.8263537765902</v>
+        <v>2.416098</v>
       </c>
       <c r="N22">
-        <v>1.8263537765902</v>
+        <v>7.248294</v>
       </c>
       <c r="O22">
-        <v>0.1091383993435501</v>
+        <v>0.129555482123503</v>
       </c>
       <c r="P22">
-        <v>0.1091383993435501</v>
+        <v>0.1362159554733215</v>
       </c>
       <c r="Q22">
-        <v>12.71567559283277</v>
+        <v>17.28819595116</v>
       </c>
       <c r="R22">
-        <v>12.71567559283277</v>
+        <v>103.72917570696</v>
       </c>
       <c r="S22">
-        <v>0.02660670725170848</v>
+        <v>0.02929642599542648</v>
       </c>
       <c r="T22">
-        <v>0.02660670725170848</v>
+        <v>0.02220909053434869</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.96232885206552</v>
+        <v>7.155419999999999</v>
       </c>
       <c r="H23">
-        <v>6.96232885206552</v>
+        <v>14.31084</v>
       </c>
       <c r="I23">
-        <v>0.243788688598546</v>
+        <v>0.22613034597408</v>
       </c>
       <c r="J23">
-        <v>0.243788688598546</v>
+        <v>0.163043238636596</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.03958220888218</v>
+        <v>5.346630666666667</v>
       </c>
       <c r="N23">
-        <v>5.03958220888218</v>
+        <v>16.039892</v>
       </c>
       <c r="O23">
-        <v>0.3011530091746546</v>
+        <v>0.2866958681958705</v>
       </c>
       <c r="P23">
-        <v>0.3011530091746546</v>
+        <v>0.3014349603463775</v>
       </c>
       <c r="Q23">
-        <v>35.08722861525649</v>
+        <v>38.25738800488</v>
       </c>
       <c r="R23">
-        <v>35.08722861525649</v>
+        <v>229.54432802928</v>
       </c>
       <c r="S23">
-        <v>0.07341769717419494</v>
+        <v>0.06483063586447145</v>
       </c>
       <c r="T23">
-        <v>0.07341769717419494</v>
+        <v>0.04914693217316728</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.96232885206552</v>
+        <v>7.155419999999999</v>
       </c>
       <c r="H24">
-        <v>6.96232885206552</v>
+        <v>14.31084</v>
       </c>
       <c r="I24">
-        <v>0.243788688598546</v>
+        <v>0.22613034597408</v>
       </c>
       <c r="J24">
-        <v>0.243788688598546</v>
+        <v>0.163043238636596</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.45300805719319</v>
+        <v>2.517315</v>
       </c>
       <c r="N24">
-        <v>2.45300805719319</v>
+        <v>7.551945</v>
       </c>
       <c r="O24">
-        <v>0.1465857143180245</v>
+        <v>0.1349829181108241</v>
       </c>
       <c r="P24">
-        <v>0.1465857143180245</v>
+        <v>0.1419224170345426</v>
       </c>
       <c r="Q24">
-        <v>17.07864877094533</v>
+        <v>18.0124460973</v>
       </c>
       <c r="R24">
-        <v>17.07864877094533</v>
+        <v>108.0746765838</v>
       </c>
       <c r="S24">
-        <v>0.03573593906087231</v>
+        <v>0.03052373397299158</v>
       </c>
       <c r="T24">
-        <v>0.03573593906087231</v>
+        <v>0.02313949050844542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.96232885206552</v>
+        <v>7.155419999999999</v>
       </c>
       <c r="H25">
-        <v>6.96232885206552</v>
+        <v>14.31084</v>
       </c>
       <c r="I25">
-        <v>0.243788688598546</v>
+        <v>0.22613034597408</v>
       </c>
       <c r="J25">
-        <v>0.243788688598546</v>
+        <v>0.163043238636596</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.95598456933087</v>
+        <v>5.633465333333334</v>
       </c>
       <c r="N25">
-        <v>4.95598456933087</v>
+        <v>16.900396</v>
       </c>
       <c r="O25">
-        <v>0.2961574203208001</v>
+        <v>0.3020764543847314</v>
       </c>
       <c r="P25">
-        <v>0.2961574203208001</v>
+        <v>0.3176062655595234</v>
       </c>
       <c r="Q25">
-        <v>34.50519435744383</v>
+        <v>40.30981051544</v>
       </c>
       <c r="R25">
-        <v>34.50519435744383</v>
+        <v>241.85886309264</v>
       </c>
       <c r="S25">
-        <v>0.07219982911873624</v>
+        <v>0.06830865314064272</v>
       </c>
       <c r="T25">
-        <v>0.07219982911873624</v>
+        <v>0.05178355414809947</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.96232885206552</v>
+        <v>7.155419999999999</v>
       </c>
       <c r="H26">
-        <v>6.96232885206552</v>
+        <v>14.31084</v>
       </c>
       <c r="I26">
-        <v>0.243788688598546</v>
+        <v>0.22613034597408</v>
       </c>
       <c r="J26">
-        <v>0.243788688598546</v>
+        <v>0.163043238636596</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.45936277925929</v>
+        <v>2.7356285</v>
       </c>
       <c r="N26">
-        <v>2.45936277925929</v>
+        <v>5.471257</v>
       </c>
       <c r="O26">
-        <v>0.1469654568429707</v>
+        <v>0.1466892771850709</v>
       </c>
       <c r="P26">
-        <v>0.1469654568429707</v>
+        <v>0.1028204015862351</v>
       </c>
       <c r="Q26">
-        <v>17.122892435733</v>
+        <v>19.57457088147</v>
       </c>
       <c r="R26">
-        <v>17.122892435733</v>
+        <v>78.29828352588</v>
       </c>
       <c r="S26">
-        <v>0.03582851599303403</v>
+        <v>0.0331708970005478</v>
       </c>
       <c r="T26">
-        <v>0.03582851599303403</v>
+        <v>0.01676417127253517</v>
       </c>
     </row>
   </sheetData>
